--- a/Data/emissions.xlsx
+++ b/Data/emissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF2E603-45B7-46B7-A3FB-C2D135242186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4EEFC7-6974-4945-938C-A64A79F80B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45F902C0-B639-4689-A03F-C4EBE431CFD7}"/>
   </bookViews>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D879B48-85B0-4B2A-9B64-5F6B6417E8CC}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,6 +1080,12 @@
         <v>1.81</v>
       </c>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <f>AVERAGE(D2:D45)+1.9</f>
+        <v>5.3367904544784208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/emissions.xlsx
+++ b/Data/emissions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4EEFC7-6974-4945-938C-A64A79F80B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC72E35-257D-4297-B505-047A53A9A26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45F902C0-B639-4689-A03F-C4EBE431CFD7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Food type</t>
   </si>
@@ -46,9 +46,6 @@
     <t>kg/litres ordered</t>
   </si>
   <si>
-    <t>emissions CO2e- per kg</t>
-  </si>
-  <si>
     <t>Lamb</t>
   </si>
   <si>
@@ -179,6 +176,15 @@
   </si>
   <si>
     <t>biscuits</t>
+  </si>
+  <si>
+    <t>beer canned</t>
+  </si>
+  <si>
+    <t>beer bottled</t>
+  </si>
+  <si>
+    <t>emissions CO2e- per kg or litre</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D879B48-85B0-4B2A-9B64-5F6B6417E8CC}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,12 +555,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>27132</v>
@@ -569,7 +575,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>50807</v>
@@ -584,7 +590,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>12800</v>
@@ -599,7 +605,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>9500</v>
@@ -614,7 +620,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>906</v>
@@ -629,7 +635,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>19314</v>
@@ -644,7 +650,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2112</v>
@@ -659,7 +665,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>4994</v>
@@ -674,7 +680,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1400</v>
@@ -689,7 +695,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1030.2</v>
@@ -704,7 +710,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>2502.4</v>
@@ -719,7 +725,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1725</v>
@@ -734,7 +740,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>247.2</v>
@@ -749,7 +755,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>788.8</v>
@@ -764,7 +770,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>2496</v>
@@ -779,7 +785,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>6000</v>
@@ -794,7 +800,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>1804</v>
@@ -809,7 +815,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>1764</v>
@@ -824,7 +830,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>1668.8</v>
@@ -839,7 +845,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>583.20000000000005</v>
@@ -854,7 +860,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>1296</v>
@@ -869,7 +875,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>1568</v>
@@ -884,7 +890,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>1311</v>
@@ -899,7 +905,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>1104</v>
@@ -914,7 +920,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <f>SUM(1842+394)</f>
@@ -930,7 +936,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>1.8</v>
@@ -938,7 +944,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>1.8</v>
@@ -946,7 +952,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29">
         <v>1.5</v>
@@ -954,7 +960,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>0.58899999999999997</v>
@@ -962,7 +968,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>2.8</v>
@@ -970,7 +976,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>0.47</v>
@@ -978,7 +984,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33">
         <v>0.47</v>
@@ -986,7 +992,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>1.02</v>
@@ -994,7 +1000,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>2.81</v>
@@ -1002,7 +1008,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>0.66</v>
@@ -1010,7 +1016,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37">
         <v>0.53</v>
@@ -1018,7 +1024,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38">
         <v>2.2000000000000002</v>
@@ -1026,7 +1032,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39">
         <v>0.7</v>
@@ -1034,7 +1040,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40">
         <v>2.2000000000000002</v>
@@ -1042,7 +1048,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41">
         <v>2.4</v>
@@ -1050,7 +1056,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42">
         <v>0.55000000000000004</v>
@@ -1058,7 +1064,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43">
         <v>4.2</v>
@@ -1066,7 +1072,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44">
         <v>1.42</v>
@@ -1074,14 +1080,30 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45">
         <v>1.81</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
       <c r="D47">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D48">
         <f>AVERAGE(D2:D45)+1.9</f>
         <v>5.3367904544784208</v>
       </c>

--- a/Data/emissions.xlsx
+++ b/Data/emissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC72E35-257D-4297-B505-047A53A9A26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AA5CA7-770A-44FF-AA3B-D292A7DA950D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45F902C0-B639-4689-A03F-C4EBE431CFD7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Food type</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>emissions CO2e- per kg or litre</t>
+  </si>
+  <si>
+    <t>banana</t>
   </si>
 </sst>
 </file>
@@ -536,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D879B48-85B0-4B2A-9B64-5F6B6417E8CC}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,7 +1106,15 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
       <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50">
         <f>AVERAGE(D2:D45)+1.9</f>
         <v>5.3367904544784208</v>
       </c>

--- a/Data/emissions.xlsx
+++ b/Data/emissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AA5CA7-770A-44FF-AA3B-D292A7DA950D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9491A76-A8B2-4539-B59B-F4835B22EF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45F902C0-B639-4689-A03F-C4EBE431CFD7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Food type</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>banana</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -541,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D879B48-85B0-4B2A-9B64-5F6B6417E8CC}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,7 +1116,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
       <c r="D50">
         <f>AVERAGE(D2:D45)+1.9</f>
         <v>5.3367904544784208</v>
